--- a/有好货页面/id_1908017/需求表格.xlsx
+++ b/有好货页面/id_1908017/需求表格.xlsx
@@ -115,7 +115,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -242,7 +248,7 @@
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -273,6 +279,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff70ad47"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>

--- a/有好货页面/id_1908017/需求表格.xlsx
+++ b/有好货页面/id_1908017/需求表格.xlsx
@@ -223,7 +223,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -237,6 +237,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1385,10 +1388,10 @@
       <c r="B2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>8</v>
       </c>
       <c r="E2" s="3"/>
@@ -1400,13 +1403,13 @@
       <c r="A3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
       <c r="E3" s="3"/>
@@ -1415,19 +1418,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" t="s" s="10">
         <v>17</v>
       </c>
       <c r="F4" t="s" s="2">
@@ -1444,11 +1447,11 @@
       <c r="A5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>

--- a/有好货页面/id_1908017/需求表格.xlsx
+++ b/有好货页面/id_1908017/需求表格.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>页面</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Title组件</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
   <si>
     <t>Shop组件</t>
@@ -124,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -145,42 +148,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,26 +197,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -223,44 +226,41 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -280,9 +280,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff70ad47"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -481,17 +481,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -519,10 +519,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -770,12 +770,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1062,7 +1062,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1090,10 +1090,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1348,7 +1348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.1719" style="1" customWidth="1"/>
@@ -1388,10 +1388,10 @@
       <c r="B2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="4">
         <v>8</v>
       </c>
       <c r="E2" s="3"/>
@@ -1403,13 +1403,13 @@
       <c r="A3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
       <c r="E3" s="3"/>
@@ -1418,19 +1418,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" t="s" s="9">
         <v>17</v>
       </c>
       <c r="F4" t="s" s="2">
@@ -1447,11 +1447,11 @@
       <c r="A5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1464,7 +1464,9 @@
       <c r="B6" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1473,7 +1475,7 @@
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>14</v>
@@ -1487,12 +1489,14 @@
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>

--- a/有好货页面/id_1908017/需求表格.xlsx
+++ b/有好货页面/id_1908017/需求表格.xlsx
@@ -118,7 +118,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -226,7 +232,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -236,13 +242,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -251,13 +260,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -282,6 +291,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff93c175"/>
       <rgbColor rgb="ff70ad47"/>
     </indexedColors>
   </colors>
@@ -1365,10 +1375,10 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
       <c r="D1" t="s" s="2">
@@ -1377,60 +1387,60 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>6</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" t="s" s="10">
         <v>17</v>
       </c>
       <c r="F4" t="s" s="2">
@@ -1447,15 +1457,15 @@
       <c r="A5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -1467,25 +1477,25 @@
       <c r="C6" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -1497,31 +1507,31 @@
       <c r="C8" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
